--- a/biology/Zoologie/Dunnart_cendré_à_queue_blanche/Dunnart_cendré_à_queue_blanche.xlsx
+++ b/biology/Zoologie/Dunnart_cendré_à_queue_blanche/Dunnart_cendré_à_queue_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dunnart_cendr%C3%A9_%C3%A0_queue_blanche</t>
+          <t>Dunnart_cendré_à_queue_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sminthopsis granulipes
 Le dunnart cendré à queue blanche (Sminthopsis granulipes) est une espèce de souris marsupiale qui a été décrite pour la première fois en 1932.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dunnart_cendr%C3%A9_%C3%A0_queue_blanche</t>
+          <t>Dunnart_cendré_à_queue_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a une longueur moyenne de 126 à 168 mm, une longueur tête-corps de 70 à 100 mm, une longueur de queue de 56 à 68 mm et un poids qui varie entre 18 et 35 grammes. La queue souvent gonflée à la base est brune à proximité de l'anus, blanche à l'extrémité.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dunnart_cendr%C3%A9_%C3%A0_queue_blanche</t>
+          <t>Dunnart_cendré_à_queue_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans deux zones distinctes en Australie-Occidentale, la première à l'est de Perth dans l'ouest des Goldfields et la seconde au nord de Perth entre Kalbarri et Baie Jurien.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dunnart_cendr%C3%A9_%C3%A0_queue_blanche</t>
+          <t>Dunnart_cendré_à_queue_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les landes côtières, les zones arbustives denses ou clairsemées et parfois les mallees d'eucalyptus.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dunnart_cendr%C3%A9_%C3%A0_queue_blanche</t>
+          <t>Dunnart_cendré_à_queue_blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Organisation sociale et reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On sait peu de choses sur le comportement et la reproduction de ce marsupial, mais il est plus que probablement nocturne. Il se reproduit de juin à août, les jeunes étant sevrés en octobre.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dunnart_cendr%C3%A9_%C3%A0_queue_blanche</t>
+          <t>Dunnart_cendré_à_queue_blanche</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mange surtout des insectes.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dunnart_cendr%C3%A9_%C3%A0_queue_blanche</t>
+          <t>Dunnart_cendré_à_queue_blanche</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « White-tailed Dunnart » (voir la liste des auteurs).</t>
         </is>
